--- a/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
+++ b/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="270" yWindow="585" windowWidth="19095" windowHeight="8325"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId1"/>
+    <sheet name="form" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>单位</t>
   </si>
@@ -22,15 +22,7 @@
     <t>数量</t>
   </si>
   <si>
-    <t>传真：</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>序号</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>业务员：</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -217,32 +209,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>地址2：</t>
-    </r>
-  </si>
-  <si>
     <t>电话：</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -347,13 +313,39 @@
       <t>货单</t>
     </r>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地址2：</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -493,6 +485,11 @@
       <name val="SimSun-ExtB"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -583,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,26 +604,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,10 +621,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -657,13 +633,38 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,7 +971,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -978,137 +979,133 @@
     <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="6.375" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
     <col min="10" max="10" width="14.625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="26.25">
-      <c r="A2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="A2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="26"/>
+      <c r="G4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="17"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="27"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="20"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
@@ -1120,9 +1117,9 @@
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="24"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="32"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
@@ -1131,34 +1128,34 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="20"/>
-      <c r="F13" t="s">
-        <v>17</v>
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
+++ b/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>单位</t>
   </si>
@@ -23,102 +23,61 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仓库</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>物料号</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>联系人：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Note：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>送</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统订单</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>规</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>格型号</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>物料号</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>件数</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>送</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
@@ -126,27 +85,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>货地址：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>联系人：</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>联</t>
-    </r>
-    <r>
-      <rPr>
+      <t>货单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>系人</t>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>送</t>
     </r>
     <r>
       <rPr>
@@ -157,13 +113,47 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>电话：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>邮</t>
+      <t>货地址：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货日期：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货单号：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>联</t>
     </r>
     <r>
       <rPr>
@@ -173,7 +163,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>政</t>
+      <t>系人</t>
     </r>
     <r>
       <rPr>
@@ -184,13 +174,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>编码：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>发</t>
+      <t>电话：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>邮</t>
     </r>
     <r>
       <rPr>
@@ -200,21 +190,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>运方式：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Note：</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>电话：</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>送</t>
+      <t>政</t>
     </r>
     <r>
       <rPr>
@@ -225,30 +201,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>货日期：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货单号：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>快递单</t>
+      <t>编码：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>发</t>
     </r>
     <r>
       <rPr>
@@ -258,94 +217,103 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>号：</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>送</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货单</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+      <t>运方式：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>快递单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
+      <t>号：</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>系</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="20"/>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统订单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="MS Gothic"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">          送</t>
-    </r>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="20"/>
+        <sz val="14"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>送</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <rFont val="SimSun-ExtB"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>货单</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>地址2：</t>
-    </r>
+      </rPr>
+      <t xml:space="preserve">    规</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>格型号</t>
+    </r>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -354,11 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -377,14 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="SimSun-ExtB"/>
       <family val="3"/>
@@ -395,11 +350,6 @@
       <name val="MS Gothic"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -414,12 +364,6 @@
       <name val="SimSun-ExtB"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -437,20 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -459,7 +389,15 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -468,26 +406,21 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <name val="MS Gothic"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <name val="SimSun-ExtB"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -505,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -574,97 +507,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,210 +906,238 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5" customWidth="1"/>
-    <col min="3" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="21.875" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="26.25">
-      <c r="A2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+    <row r="2" spans="1:12" ht="18.75">
+      <c r="A2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>6</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:L2"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>

--- a/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
+++ b/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -421,6 +421,26 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -522,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,11 +563,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -600,6 +615,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,9 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -926,20 +953,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2"/>
@@ -965,15 +992,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2"/>
@@ -986,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="4"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -997,8 +1024,8 @@
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -1015,8 +1042,8 @@
         <v>12</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1031,8 +1058,8 @@
         <v>13</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1047,12 +1074,12 @@
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1068,7 +1095,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="4"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1088,12 +1115,12 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1104,30 +1131,30 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="18" t="s">
         <v>6</v>
       </c>
     </row>

--- a/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
+++ b/dsyg_erp/WebRoot/page/warehouserpt_out_detail_noprice_template.xlsx
@@ -43,36 +43,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="SimSun-ExtB"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <t>送</t>
     </r>
     <r>
@@ -305,6 +275,36 @@
         <charset val="128"/>
       </rPr>
       <t>格型号</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun-ExtB"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -542,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,12 +611,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +623,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,47 +941,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="6.125" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="8.125" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75">
-      <c r="A2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="A2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6"/>
@@ -989,18 +992,18 @@
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2"/>
@@ -1010,7 +1013,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="8"/>
@@ -1028,7 +1031,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="7"/>
@@ -1039,7 +1042,7 @@
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="11"/>
@@ -1055,7 +1058,7 @@
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="13"/>
@@ -1071,7 +1074,7 @@
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="9"/>
@@ -1092,7 +1095,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="15"/>
@@ -1136,7 +1139,7 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="20"/>
@@ -1145,7 +1148,7 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="23" t="s">
